--- a/resources/ExcelsheetData/tc001_HGH_Registration_ErrorScenarios.xlsx
+++ b/resources/ExcelsheetData/tc001_HGH_Registration_ErrorScenarios.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RegistrationErrorScenarios" localSheetId="0">Sheet1!$B$1:$O$11</definedName>
+    <definedName name="RegistrationErrorScenarios" localSheetId="0">Sheet1!$B$1:$P$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>companyName</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Please enter Password.</t>
   </si>
   <si>
-    <t>Please enter Password Confirmation.</t>
-  </si>
-  <si>
     <t>Please enter Billing Address.</t>
   </si>
   <si>
@@ -187,6 +184,24 @@
   </si>
   <si>
     <t>010</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>9900623434</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Please Enter Phone Number.</t>
+  </si>
+  <si>
+    <t>Please enter Confirm password</t>
+  </si>
+  <si>
+    <t>92301</t>
   </si>
 </sst>
 </file>
@@ -547,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,11 +582,12 @@
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -613,12 +629,15 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -652,16 +671,19 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -695,16 +717,19 @@
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -740,16 +765,19 @@
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -783,16 +811,19 @@
       <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -826,16 +857,19 @@
       <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -869,16 +903,19 @@
       <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -912,16 +949,19 @@
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>29</v>
+      <c r="N8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -955,16 +995,19 @@
       <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>30</v>
+      <c r="N9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -998,18 +1041,21 @@
         <v>19</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="1">
-        <v>92301</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -1045,9 +1091,58 @@
       <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="1" t="s">
-        <v>33</v>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
